--- a/biology/Zoologie/Dauphin_tacheté_de_l'Atlantique/Dauphin_tacheté_de_l'Atlantique.xlsx
+++ b/biology/Zoologie/Dauphin_tacheté_de_l'Atlantique/Dauphin_tacheté_de_l'Atlantique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dauphin_tachet%C3%A9_de_l%27Atlantique</t>
+          <t>Dauphin_tacheté_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stenella frontalis
 Le Dauphin tacheté de l'Atlantique (Stenella frontalis) est une espèce de mammifères odontocètes de la famille des Delphinidés (cette famille inclut les dauphins et les orques).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dauphin_tachet%C3%A9_de_l%27Atlantique</t>
+          <t>Dauphin_tacheté_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dauphins tachetés de l'Atlantique sont grégaires. Ils forment des groupes comptant de 5 à 15 individus[1]. 
-La gestation dure 11 mois et la femelle prend soin de son petit pendant 5 ans, avec l'aide de son groupe. La maturité sexuelle est atteinte vers 15 ans[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dauphins tachetés de l'Atlantique sont grégaires. Ils forment des groupes comptant de 5 à 15 individus. 
+La gestation dure 11 mois et la femelle prend soin de son petit pendant 5 ans, avec l'aide de son groupe. La maturité sexuelle est atteinte vers 15 ans. 
 </t>
         </is>
       </c>
